--- a/现金日记账.xlsx
+++ b/现金日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,61 @@
   </si>
   <si>
     <t>购买红心火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄春梅医药费代付（东兴市人民医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄春梅医药费代付（东兴市人民医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄春梅医药费代付（防城港市中医医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.13</t>
+  </si>
+  <si>
+    <t>黄春梅转院过路费（防城港市中医医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄春梅住院日用品（防城港市中医医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄春梅住院押金（防城港市中医医院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送黄春梅转院到防城港中医医院路费（2人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹锋看望黄春梅慰问金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,13 +975,220 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5">
+        <v>449.63</v>
+      </c>
+      <c r="E4" s="5">
+        <f>E3+C4-D4</f>
+        <v>3550.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5">
+        <v>335.21</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E12" si="0">E4-D5</f>
+        <v>3215.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5">
+        <v>356.9</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>2858.2599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>2828.2599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>2827.2599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5">
+        <v>225</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>2602.2599999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>1602.2599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>1572.2599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>572.25999999999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/现金日记账.xlsx
+++ b/现金日记账.xlsx
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="9月" sheetId="1" r:id="rId1"/>
     <sheet name="10月" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="11月" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,55 +119,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016.10.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春梅医药费代付（东兴市人民医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.10.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春梅医药费代付（东兴市人民医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春梅医药费代付（防城港市中医医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.10.13</t>
-  </si>
-  <si>
-    <t>黄春梅转院过路费（防城港市中医医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春梅住院日用品（防城港市中医医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄春梅住院押金（防城港市中医医院）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送黄春梅转院到防城港中医医院路费（2人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.10.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹锋看望黄春梅慰问金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.10.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2016.11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11.2</t>
+  </si>
+  <si>
+    <t>2016.11.3</t>
+  </si>
+  <si>
+    <t>2016.11.4</t>
+  </si>
+  <si>
+    <t>2016.11.5</t>
+  </si>
+  <si>
+    <t>2016.11.6</t>
+  </si>
+  <si>
+    <t>2016.11.7</t>
+  </si>
+  <si>
+    <t>2016.11.8</t>
+  </si>
+  <si>
+    <t>2016.11.9</t>
+  </si>
+  <si>
+    <t>2016.11.10</t>
+  </si>
+  <si>
+    <t>2016.11.11</t>
   </si>
 </sst>
 </file>
@@ -551,7 +534,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,7 +961,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1003,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1028,156 +1011,124 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="5">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5">
         <v>449.63</v>
       </c>
       <c r="E4" s="5">
         <f>E3+C4-D4</f>
-        <v>3550.37</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5">
-        <v>335.21</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E12" si="0">E4-D5</f>
-        <v>3215.16</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5">
-        <v>356.9</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>2858.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5">
-        <v>30</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>2828.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>2827.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5">
-        <v>225</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>2602.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5">
-        <v>1000</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>1602.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5">
-        <v>30</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>1572.2599999999998</v>
+        <v>4550.37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>4550.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>572.25999999999976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
